--- a/Assets/Designs/General/Reminder.xlsx
+++ b/Assets/Designs/General/Reminder.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -34,13 +47,22 @@
     <t>float</t>
   </si>
   <si>
-    <t>Hey there!</t>
+    <t>WASD to Move, F to Interact</t>
+  </si>
+  <si>
+    <t>A Few Hours Later...</t>
+  </si>
+  <si>
+    <t>Use Menu - Map to walk around!</t>
+  </si>
+  <si>
+    <t>You have unlocked a new piece of Note</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1196,13 +1218,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="43.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="38.3333333333333" customWidth="1"/>
@@ -1244,6 +1266,39 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Designs/General/Reminder.xlsx
+++ b/Assets/Designs/General/Reminder.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -38,6 +38,12 @@
     <t>Life</t>
   </si>
   <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>SpeakerType</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -47,9 +53,18 @@
     <t>float</t>
   </si>
   <si>
+    <t>Enums.CHARACTER_TYPE</t>
+  </si>
+  <si>
     <t>WASD to Move, F to Interact</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Enums.CHARACTER_TYPE.You</t>
+  </si>
+  <si>
     <t>A Few Hours Later...</t>
   </si>
   <si>
@@ -57,6 +72,36 @@
   </si>
   <si>
     <t>You have unlocked a new piece of Note</t>
+  </si>
+  <si>
+    <t>What is that red zone? I guess we should not touch it.</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>Maybe we can touch it when its safe...</t>
+  </si>
+  <si>
+    <t>Avoid the Unstable Zone!</t>
+  </si>
+  <si>
+    <t>Now it's safe!</t>
+  </si>
+  <si>
+    <t>I need to find a way to break this shield</t>
+  </si>
+  <si>
+    <t>They didn't tell me they are sending this for the match...</t>
+  </si>
+  <si>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>Enums.CHARACTER_TYPE.Friend</t>
+  </si>
+  <si>
+    <t>Our bullets cannot get through that shield!</t>
   </si>
 </sst>
 </file>
@@ -1218,22 +1263,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="43.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="63.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="38.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="30.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="27.7777777777778" customWidth="1"/>
     <col min="6" max="6" width="19.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1243,60 +1288,215 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Reminder.xlsx
+++ b/Assets/Designs/General/Reminder.xlsx
@@ -80,7 +80,7 @@
     <t>You</t>
   </si>
   <si>
-    <t>Maybe we can touch it when its safe...</t>
+    <t>Maybe we can touch it when it's safe...</t>
   </si>
   <si>
     <t>Avoid the Unstable Zone!</t>
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>

--- a/Assets/Designs/General/Reminder.xlsx
+++ b/Assets/Designs/General/Reminder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="27948" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -102,6 +102,24 @@
   </si>
   <si>
     <t>Our bullets cannot get through that shield!</t>
+  </si>
+  <si>
+    <t>Who should we choose for this match...</t>
+  </si>
+  <si>
+    <t>Wait a minute, why couldn't I fire at all?</t>
+  </si>
+  <si>
+    <t>This match is a challenge to your speed, and you shall dodge all attacks</t>
+  </si>
+  <si>
+    <t>*The Auditorium*</t>
+  </si>
+  <si>
+    <t>Enums.CHARACTER_TYPE.Enemy</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
 </sst>
 </file>
@@ -1263,15 +1281,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="63.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="78.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="38.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="30.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="27.7777777777778" customWidth="1"/>
@@ -1499,6 +1517,74 @@
         <v>23</v>
       </c>
     </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Designs/General/Reminder.xlsx
+++ b/Assets/Designs/General/Reminder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>...</t>
+  </si>
+  <si>
+    <t>I don't think our team has enough score to proceed to the next day</t>
   </si>
 </sst>
 </file>
@@ -1281,10 +1284,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1585,6 +1588,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Designs/General/Reminder.xlsx
+++ b/Assets/Designs/General/Reminder.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -56,22 +56,28 @@
     <t>Enums.CHARACTER_TYPE</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Enums.CHARACTER_TYPE.Enemy</t>
+  </si>
+  <si>
     <t>WASD to Move, F to Interact</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Enums.CHARACTER_TYPE.You</t>
   </si>
   <si>
     <t>A Few Hours Later...</t>
   </si>
   <si>
-    <t>Use Menu - Map to walk around!</t>
-  </si>
-  <si>
-    <t>You have unlocked a new piece of Note</t>
+    <t>Use Menu - Map to walk around</t>
+  </si>
+  <si>
+    <t>Use Menu - Notes to check your notes</t>
   </si>
   <si>
     <t>What is that red zone? I guess we should not touch it.</t>
@@ -116,13 +122,67 @@
     <t>*The Auditorium*</t>
   </si>
   <si>
-    <t>Enums.CHARACTER_TYPE.Enemy</t>
-  </si>
-  <si>
     <t>...</t>
   </si>
   <si>
     <t>I don't think our team has enough score to proceed to the next day</t>
+  </si>
+  <si>
+    <t>Auch ich habe den Wert der Zeit einst überschatzt, darum wollte ich hundert Jahre alt werden. In der Ewigkeit aber, siehst du, gibt es keine Zeit; die Ewigkeit ist bloss ein Augenblick, gerade lange genug fur einen Spass.\n\t\t\t\t\t Hermann Hesse, Steppenwolf</t>
+  </si>
+  <si>
+    <t>To Whom Playing this Game</t>
+  </si>
+  <si>
+    <t>Where am I?</t>
+  </si>
+  <si>
+    <t>\"Wake Up\"</t>
+  </si>
+  <si>
+    <t>So I'm supposed to find that person named \"Dove\"... I can bearly remember what's going on.</t>
+  </si>
+  <si>
+    <t>I guess I'm in some sort of games, perhaps I should check the rules out.</t>
+  </si>
+  <si>
+    <t>At least I finally recall that I can do some sort of time travel.</t>
+  </si>
+  <si>
+    <t>Did I lose my memory for this reason? Well, I need to be cautious about it.</t>
+  </si>
+  <si>
+    <t>Maybe I can walk around before going back to the teamroom</t>
+  </si>
+  <si>
+    <t>It's almost the third day, I still cannot recall why I am here</t>
+  </si>
+  <si>
+    <t>Wait, why did I mention \"third\" in my mind... did I come here for some reason?</t>
+  </si>
+  <si>
+    <t>I don't think I'd just time travel to simply win a match...</t>
+  </si>
+  <si>
+    <t>DAY 1</t>
+  </si>
+  <si>
+    <t>DAY 2</t>
+  </si>
+  <si>
+    <t>DAY 3</t>
+  </si>
+  <si>
+    <t>DAY 4</t>
+  </si>
+  <si>
+    <t>DAY 5</t>
+  </si>
+  <si>
+    <t>DAY 6</t>
+  </si>
+  <si>
+    <t>DAY 7</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1344,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1335,13 +1395,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1352,7 +1412,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -1364,15 +1424,15 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1381,15 +1441,15 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1398,29 +1458,29 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -1429,160 +1489,160 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1590,19 +1650,376 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
       <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:5">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>10001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>10002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>10003</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>10004</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>10005</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>10006</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>10007</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/Reminder.xlsx
+++ b/Assets/Designs/General/Reminder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13500"/>
+    <workbookView windowWidth="19200" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -152,13 +152,13 @@
     <t>Did I lose my memory for this reason? Well, I need to be cautious about it.</t>
   </si>
   <si>
-    <t>Maybe I can walk around before going back to the teamroom</t>
+    <t>Maybe I can walk around before going back to the teamroom, how about the Matching Platform?</t>
   </si>
   <si>
     <t>It's almost the third day, I still cannot recall why I am here</t>
   </si>
   <si>
-    <t>Wait, why did I mention \"third\" in my mind... did I come here for some reason?</t>
+    <t>Wait, why did I mention \"third\" in my mind... am I here for some reason?</t>
   </si>
   <si>
     <t>I don't think I'd just time travel to simply win a match...</t>
@@ -1346,17 +1346,17 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="78.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="38.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="30.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="27.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="19.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="78.1150442477876" customWidth="1"/>
+    <col min="3" max="3" width="38.3362831858407" customWidth="1"/>
+    <col min="4" max="4" width="30.1150442477876" customWidth="1"/>
+    <col min="5" max="5" width="27.7787610619469" customWidth="1"/>
+    <col min="6" max="6" width="19.7787610619469" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
